--- a/C#/Sync vs Async.xlsx
+++ b/C#/Sync vs Async.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\git\all-languages\all-languages\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46482D5A-597B-4743-A866-3BC5CF118633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418F4BB-4D0E-466C-9370-ABFD10EEDD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ASYNC AWAIT" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK PARALLEL LIBRARY" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Being synchronous means that it's going to run everything here on the same thread as our application UI.</t>
   </si>
@@ -224,9 +225,6 @@
     <t xml:space="preserve">ASYNC - The async keyword is a way for us to indicate that this method here will contain asynchronous operations. </t>
   </si>
   <si>
-    <t>NOTE:   Nowadays, a lot of people don't suffix their methods with the async keyword because a lot of IDs will hint to you that you need to await this and that it's in fact returning a task.</t>
-  </si>
-  <si>
     <t>WHAT WORKS ARE DONE BY AWAIT KEYWORD?</t>
   </si>
   <si>
@@ -242,26 +240,71 @@
     <t>Marking a method as async indicates that this method will have the capability of executing asynchronous operation that we are then awaiting inside the same context.</t>
   </si>
   <si>
-    <t>Async void is pretty much evil and is something that you should always avoid if you can.  The reason is, of course, event handlers. if you want to have asynchronous code inside your event handlers, the delegate for an event is most certainly returning void. So the only time you're allowed to do async void is for your event handlers.   Instead, mark this as async Task.   Marking this as async Task means that the method will in fact automatically return a reference to the ongoing operation.</t>
-  </si>
-  <si>
     <t>we are not getting any compilation errors,  That's because whenever we mark something as async and the return type is of Task, we don't have to return anything because compiler will do all of that for us.</t>
   </si>
   <si>
     <t>And it's marked as async Task because that allows us to use the await keyword, as well as then getting a reference to the ongoing operation whenever we call this method.</t>
   </si>
   <si>
-    <t>Task is just the ongoing asynchronous operation.</t>
-  </si>
-  <si>
     <t>CREATE YOUR OWN ASYNC METHOD</t>
+  </si>
+  <si>
+    <t>D:\R\git\all-languages\all-languages\C#\Sync vs Async\Async_Await\1_Synchronous\StockAnalyzer.sln</t>
+  </si>
+  <si>
+    <t>D:\R\git\all-languages\all-languages\C#\Sync vs Async\Async_Await\2_Asyncronous_using_Async_Await\StockAnalyzer.sln</t>
+  </si>
+  <si>
+    <t>NOTE:   Nowadays, a lot of people don't suffix their methods with the async keyword because a lot of IDEs will hint to you that you need to await this and that it's in fact returning a task.</t>
+  </si>
+  <si>
+    <t>SCENARIO 1 -  if a method contains ASYNC keyword and it hasn't used AWAIT keyword then the above warning is showing as that the method runs synchronously though you used ASYNC keyword</t>
+  </si>
+  <si>
+    <t>ASYNC and AWAIT keywords work in conjunction.</t>
+  </si>
+  <si>
+    <t>DISK</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>WEB/API</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>WHAT TYPE OF WORKS(OPERATIONS) ARE ASYNC / AWAIT KEYWORD SUITABLE FOR?</t>
+  </si>
+  <si>
+    <t>So instead of the .RESULT (or) .WAIT, always use AWAIT</t>
+  </si>
+  <si>
+    <t>So the big benefit of using async and await inside ASP.NET is to relieve IIS or the web server that you were using so that it can go ahead and work with other requests as your data is being loaded from disk, the database, or from another API.</t>
+  </si>
+  <si>
+    <t>IS IT USEFUL TO USE ASYNC / AWAIT KEYWORDS IN ASP.NET APPLICATIONS?</t>
+  </si>
+  <si>
+    <t>Async void is pretty much evil and is something that you should always avoid if you can.    Instead, mark this as async Task.   Marking this as async Task means that the method will in fact automatically return a reference to the ongoing operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only time you're allowed to do async void is for your event handlers.   If you want to have asynchronous code inside your event handlers, the delegate for an event is most certainly returning void.  </t>
+  </si>
+  <si>
+    <t>Task is just the ongoing ASYNCHRONOUS operation.</t>
+  </si>
+  <si>
+    <t>BEST PRACTICES OF AYSNC &amp; AWAIT, DO and DONT'S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +323,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,9 +363,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,13 +390,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>442941</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>129869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -374,6 +426,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -382,13 +439,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>91480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -426,13 +483,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -485,16 +542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>740</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>53725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564620</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>46105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -517,7 +574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16687800"/>
+          <a:off x="1783080" y="24726900"/>
           <a:ext cx="8535140" cy="4442845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -529,16 +586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>45930</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38681</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,8 +618,470 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21259800"/>
+          <a:off x="1866900" y="29337000"/>
           <a:ext cx="6706181" cy="2423370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959C039D-E74E-4515-BA50-5BCB62A61AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="628650" y="11849100"/>
+          <a:ext cx="12512040" cy="659130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>511641</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>8971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB4621E-81C5-4994-8A7F-761519767BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12750800"/>
+          <a:ext cx="12703641" cy="929721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183688</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>137219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0766DE13-B4F6-4A1D-8D1C-455212C9E640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="16687800"/>
+          <a:ext cx="9327688" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92135</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>7684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D27D3-34E2-4DA2-A813-7B07F2541AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="17967960"/>
+          <a:ext cx="8016935" cy="739204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564510</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>45752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0DB5AA-D9D6-479B-8855-D9C7E3E5C048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="18737580"/>
+          <a:ext cx="7270110" cy="373412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290378</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>106737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DA6763-BB1B-405A-9D9E-B630E790EF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="21991320"/>
+          <a:ext cx="9434378" cy="655377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>144840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F36A6-2D3C-4634-B2F1-1D68AAA1C32E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="23088600"/>
+          <a:ext cx="9000000" cy="693480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503756</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>83859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258760D1-AF43-48A3-8F95-F1F42F21FD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="31866840"/>
+          <a:ext cx="9647756" cy="449619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>199247</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1834D41C-5758-48CE-8510-A476E09072C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33147000"/>
+          <a:ext cx="13000847" cy="4389500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244601</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>83891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE0699-4A0D-4628-9C24-CF2ED722A9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37719000"/>
+          <a:ext cx="8779001" cy="815411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,6 +1385,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
@@ -912,103 +1436,171 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>30</v>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1016,4 +1608,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1F80A2-AE99-47FA-8AFE-0E3B6745B00D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>